--- a/data/georgia_census/kakheti/sagarejo/healthcare_staff.xlsx
+++ b/data/georgia_census/kakheti/sagarejo/healthcare_staff.xlsx
@@ -1371,13 +1371,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36768CCD-EA0B-4D2D-A1E6-A3020161B592}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12615585-2CE4-46DC-A293-016BEBFE972E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B4A6411-DB51-4E5D-97B3-6522ECF2F420}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4057EC76-CD9A-488B-9AB8-37C19653DBED}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6622C39-7DBC-4ECF-A4DC-3F40A41EE466}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{583F36EA-8D0C-46A6-8E85-968063B53EAE}"/>
 </file>